--- a/Blog.Core.Api/wwwroot/BlogCore.Data.excel/UserRole.xlsx
+++ b/Blog.Core.Api/wwwroot/BlogCore.Data.excel/UserRole.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="导出结果" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>IsDeleted</t>
   </si>
@@ -51,29 +53,372 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy'年'M'月'd'日' H:mm:ss"/>
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\'&quot;年&quot;\'m\'&quot;月&quot;\'d\'&quot;日&quot;\'\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -81,319 +426,868 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr applyStyles="1"/>
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.905163764953613" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.539929389953613" customWidth="1"/>
-    <col min="4" max="4" width="22.204797744750977" customWidth="1" style="2"/>
-    <col min="5" max="5" width="9.584943771362305" customWidth="1"/>
-    <col min="6" max="6" width="10.083176612854004" customWidth="1"/>
-    <col min="7" max="7" width="22.204797744750977" customWidth="1" style="2"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.90476190476191" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" customWidth="1"/>
+    <col min="3" max="3" width="9.54285714285714" customWidth="1"/>
+    <col min="4" max="4" width="22.2095238095238" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.58095238095238" customWidth="1"/>
+    <col min="6" max="6" width="10.0857142857143" customWidth="1"/>
+    <col min="7" max="7" width="22.2095238095238" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G2" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H2" s="0">
+      <c r="D2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H3" s="0">
+      <c r="D3" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H4" s="0">
+      <c r="D4" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="J4" s="0">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>23</v>
       </c>
-      <c r="D5" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G5" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H5" s="0">
+      <c r="D5" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H6" s="0">
+      <c r="D6" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G7" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H7" s="0">
+      <c r="D7" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>13</v>
       </c>
-      <c r="D8" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G8" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H8" s="0">
+      <c r="D8" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>19</v>
       </c>
-      <c r="D9" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G9" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H9" s="0">
+      <c r="D9" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="D10" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G10" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H10" s="0">
+      <c r="D10" s="1">
+        <v>43466</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>7</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="0">
+      <c r="D11" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>39</v>
       </c>
-      <c r="D12" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="0">
+      <c r="D12" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H12">
         <v>39</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>28</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Blog.Core.Api/wwwroot/BlogCore.Data.excel/UserRole.xlsx
+++ b/Blog.Core.Api/wwwroot/BlogCore.Data.excel/UserRole.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\sec-file\he\anjoy8\Blog.Core\Blog.Core.Api\wwwroot\BlogCore.Data.excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20665954-B698-48B8-A15F-C3B119EABD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37230" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出结果" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>IsDeleted</t>
   </si>
@@ -50,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy'年'M'月'd'日' H:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\'&quot;年&quot;\'m\'&quot;月&quot;\'d\'&quot;日&quot;\'\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -63,6 +71,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,45 +97,349 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr applyStyles="1"/>
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.905163764953613" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.539929389953613" customWidth="1"/>
-    <col min="4" max="4" width="22.204797744750977" customWidth="1" style="2"/>
-    <col min="5" max="5" width="9.584943771362305" customWidth="1"/>
-    <col min="6" max="6" width="10.083176612854004" customWidth="1"/>
-    <col min="7" max="7" width="22.204797744750977" customWidth="1" style="2"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -153,8 +471,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2">
@@ -163,18 +481,18 @@
       <c r="G2" s="2">
         <v>43466</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" s="0">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2">
@@ -183,18 +501,18 @@
       <c r="G3" s="2">
         <v>43466</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2">
@@ -203,44 +521,44 @@
       <c r="G4" s="2">
         <v>43466</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43466</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43466</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="I4" s="0">
-        <v>3</v>
-      </c>
-      <c r="J4" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43466</v>
-      </c>
-      <c r="G5" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H5" s="0">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" s="2">
@@ -249,21 +567,21 @@
       <c r="G6" s="2">
         <v>43466</v>
       </c>
-      <c r="H6" s="0">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0">
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" s="2">
@@ -272,21 +590,21 @@
       <c r="G7" s="2">
         <v>43466</v>
       </c>
-      <c r="H7" s="0">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>13</v>
       </c>
       <c r="D8" s="2">
@@ -295,21 +613,21 @@
       <c r="G8" s="2">
         <v>43466</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="0">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
         <v>19</v>
       </c>
       <c r="D9" s="2">
@@ -318,21 +636,21 @@
       <c r="G9" s="2">
         <v>43466</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0">
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>24</v>
       </c>
       <c r="D10" s="2">
@@ -341,59 +659,59 @@
       <c r="G10" s="2">
         <v>43466</v>
       </c>
-      <c r="H10" s="0">
-        <v>13</v>
-      </c>
-      <c r="I10" s="0">
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
         <v>7</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0">
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" s="2">
         <v>43466</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0">
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>39</v>
       </c>
       <c r="D12" s="2">
         <v>43466</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>39</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>28</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>